--- a/data/trans_orig/EJER_MOD_DIAS-Clase-trans_orig.xlsx
+++ b/data/trans_orig/EJER_MOD_DIAS-Clase-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nº medio de días en los que se realiza actividad física moderada</t>
+          <t>Nº medio de días en los que se realiza actividad física moderada (tasa de respuesta: 98,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/EJER_MOD_DIAS-Clase-trans_orig.xlsx
+++ b/data/trans_orig/EJER_MOD_DIAS-Clase-trans_orig.xlsx
@@ -656,47 +656,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,32</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,67</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>1,47</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,32</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,38</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,67</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,63</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,68</t>
+          <t>1,26; 1,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 2,65</t>
+          <t>2,04; 2,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,04</t>
+          <t>1,62; 2,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 1,54</t>
+          <t>1,28; 1,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 3,0</t>
+          <t>2,47; 2,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 1,86</t>
+          <t>1,42; 1,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,55</t>
+          <t>1,33; 1,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 2,7</t>
+          <t>2,3; 2,69</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,52</t>
+          <t>0,95; 1,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 2,7</t>
+          <t>2,09; 2,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,47</t>
+          <t>1,0; 1,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 1,22</t>
+          <t>0,9; 1,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 2,63</t>
+          <t>2,08; 2,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,27</t>
+          <t>0,97; 1,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 2,59</t>
+          <t>2,16; 2,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 1,21</t>
+          <t>0,92; 1,22</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,44</t>
+          <t>1,09; 1,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,6</t>
+          <t>0,36; 2,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 1,44</t>
+          <t>0,85; 1,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,14</t>
+          <t>0,64; 1,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,16</t>
+          <t>1,37; 2,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,79</t>
+          <t>0,76; 1,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,31</t>
+          <t>1,0; 1,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,34</t>
+          <t>0,4; 2,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 1,46</t>
+          <t>0,9; 1,47</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,4</t>
+          <t>1,12; 1,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 2,73</t>
+          <t>2,19; 2,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 1,41</t>
+          <t>0,91; 1,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,12</t>
+          <t>0,86; 1,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,37</t>
+          <t>0,58; 2,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,12</t>
+          <t>0,67; 1,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,22</t>
+          <t>1,03; 1,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 2,45</t>
+          <t>1,17; 2,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 1,18</t>
+          <t>0,83; 1,18</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,87</t>
+          <t>1,34; 2,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 2,7</t>
+          <t>1,87; 2,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,14</t>
+          <t>0,55; 1,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 0,97</t>
+          <t>0,67; 1,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,12</t>
+          <t>0,97; 2,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,57; 1,28</t>
+          <t>0,57; 1,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 1,21</t>
+          <t>0,98; 1,39</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 2,2</t>
+          <t>1,32; 2,21</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 1,13</t>
+          <t>0,62; 1,12</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,9</t>
+          <t>1,03; 1,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,8</t>
+          <t>2,5; 3,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,26</t>
+          <t>1,12; 2,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,87</t>
+          <t>0,61; 1,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,55</t>
+          <t>1,15; 1,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,19</t>
+          <t>0,55; 1,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,03</t>
+          <t>0,79; 1,18</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,08</t>
+          <t>1,58; 2,05</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,41</t>
+          <t>0,84; 1,42</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,52 +1564,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>1,26; 1,49</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 2,5</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1,48; 1,69</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 1,48</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 1,18</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1,31; 2,03</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
           <t>1,23; 1,42</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>1,41; 2,51</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 1,69</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>1,25; 1,48</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 1,05</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 2,05</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>1,23; 1,42</t>
-        </is>
-      </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,24</t>
+          <t>1,03; 1,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,2</t>
+          <t>1,14; 1,29</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,58; 2,2</t>
+          <t>1,63; 2,22</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">

--- a/data/trans_orig/EJER_MOD_DIAS-Clase-trans_orig.xlsx
+++ b/data/trans_orig/EJER_MOD_DIAS-Clase-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>1,46</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,32</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,67</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>1,49</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,67</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,63</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,73</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,78</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>1,47</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>2,06; 2,61</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1,62; 2,06</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1,67; 2,09</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>1,26; 1,7</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,04; 2,59</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,67; 2,09</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>1,62; 2,06</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>2,45; 2,96</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1,42; 1,85</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 1,9</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>1,28; 1,72</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>2,47; 2,99</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 1,9</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>1,42; 1,85</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>2,3; 2,69</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1,58; 1,89</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,64; 1,93</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>1,33; 1,64</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>2,3; 2,69</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>1,64; 1,93</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>1,58; 1,89</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,36</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>1,17</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,41</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,64</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,23</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>2,32</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>1,07</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,35</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>2,34</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>1,12</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>2,38</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>1,05</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>2,05; 2,68</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 1,46</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1,42; 1,89</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>0,95; 1,46</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,09; 2,71</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,42; 1,89</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 1,46</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>2,05; 2,58</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,75; 1,13</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 1,5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>0,9; 1,26</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 2,61</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 1,5</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,75; 1,13</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>2,13; 2,55</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 1,22</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1,31; 1,62</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>0,97; 1,28</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>2,16; 2,6</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>1,31; 1,62</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 1,22</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,51</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,29</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>0,88</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>2,27</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>1,18</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>2,2; 2,91</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 1,5</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 1,66</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>1,09; 1,53</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,36; 2,58</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 1,66</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 1,5</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>1,35; 2,19</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 1,8</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 1,47</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>0,64; 1,2</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,37; 2,24</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 1,47</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,76; 1,8</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>2,01; 2,59</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 1,47</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 1,52</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>1,0; 1,36</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0,4; 2,37</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 1,52</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 1,47</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,46</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>1,31</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,44</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>1,05</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,57</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1,34</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>1,18</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>1,97</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>1,0</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>2,21; 2,73</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 1,4</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 1,67</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>1,12; 1,57</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,19; 2,73</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,27; 1,67</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 1,4</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>2,11; 2,54</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 1,13</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1,08; 1,43</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>0,86; 1,28</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,58; 2,37</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>1,08; 1,43</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0,67; 1,13</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>2,22; 2,58</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 1,18</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 1,48</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>1,03; 1,33</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 2,44</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>1,2; 1,48</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 1,18</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>1,7</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,29</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>0,84</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1,69</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>1,16</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>1,27</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>1,96; 2,7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 1,14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 1,77</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>1,34; 2,12</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,87; 2,72</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 1,77</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,55; 1,14</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>1,73; 2,22</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 1,29</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 1,37</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>0,67; 1,1</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 2,07</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 1,37</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0,57; 1,29</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>1,91; 2,34</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 1,12</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1,09; 1,47</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>0,98; 1,39</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>1,32; 2,21</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>1,09; 1,47</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 1,12</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>3,12</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>1,42</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,15</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,64</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>0,79</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1,72</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>0,97</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,82</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>1,79</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>1,13</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>2,48; 3,72</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 2,26</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 2,63</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>1,03; 1,85</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,5; 3,81</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 2,63</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 2,26</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>1,12; 1,49</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 1,24</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 1,8</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>0,61; 1,06</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,15; 1,53</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,44; 1,8</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,55; 1,24</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>1,51; 1,96</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 1,42</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 1,82</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>0,79; 1,18</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>1,58; 2,05</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0,61; 1,82</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 1,42</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>2,46</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>1,37</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,17</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,59</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,36</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>1,07</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>1,79</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>1,21</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>1,98</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>2,32; 2,6</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 1,48</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1,48; 1,69</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>1,26; 1,49</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>1,41; 2,5</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 1,69</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 1,48</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>1,92; 2,12</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 1,25</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 1,42</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>0,99; 1,18</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>1,31; 2,03</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>1,23; 1,42</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>1,03; 1,25</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>2,16; 2,33</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 1,32</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 1,53</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>1,14; 1,29</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>1,63; 2,22</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 1,53</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 1,32</t>
         </is>
       </c>
     </row>
